--- a/public/temp/siswa_template.xlsx
+++ b/public/temp/siswa_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webapp\lms_baru\client\public\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05890B1-39F3-4130-808F-F8DE04E74003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074E92C-DAD5-4854-A765-06ACA7B16050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00C4399E-05AB-4F98-A3C6-D7CA44A0A7E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00C4399E-05AB-4F98-A3C6-D7CA44A0A7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>nis</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>Annisa Nayla Mumtazah</t>
+  </si>
+  <si>
+    <t>year_id</t>
   </si>
 </sst>
 </file>
@@ -772,27 +775,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA39AABF-2A54-4647-BAE6-3CA74C20F207}">
-  <dimension ref="A1:B531"/>
+  <dimension ref="A1:C531"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>232410348</v>
       </c>
@@ -800,7 +806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>232410350</v>
       </c>
@@ -808,7 +814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>232410351</v>
       </c>
@@ -816,7 +822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>232410352</v>
       </c>
@@ -824,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>232410353</v>
       </c>
@@ -832,7 +838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>232410357</v>
       </c>
@@ -840,7 +846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>232410358</v>
       </c>
@@ -848,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>232410361</v>
       </c>
@@ -856,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>232410363</v>
       </c>
@@ -864,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>232410366</v>
       </c>
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>232410371</v>
       </c>
@@ -880,7 +886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>232410377</v>
       </c>
@@ -888,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>232410383</v>
       </c>
@@ -896,7 +902,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>232410386</v>
       </c>
@@ -904,7 +910,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>232410388</v>
       </c>
@@ -912,7 +918,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>232410390</v>
       </c>
@@ -920,7 +926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>232410393</v>
       </c>
@@ -928,7 +934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>232410397</v>
       </c>
@@ -936,7 +942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>232410400</v>
       </c>
@@ -944,7 +950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>232410402</v>
       </c>
@@ -952,7 +958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>232410404</v>
       </c>
@@ -960,7 +966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>232410349</v>
       </c>
@@ -968,7 +974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>232410354</v>
       </c>
@@ -976,7 +982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>232410355</v>
       </c>
@@ -984,7 +990,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>232410356</v>
       </c>
@@ -992,7 +998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>232410359</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>232410362</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>232410367</v>
       </c>
@@ -1016,7 +1022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>232410369</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>232410370</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>232410372</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>232410373</v>
       </c>
@@ -1048,7 +1054,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>232410374</v>
       </c>
@@ -1056,7 +1062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>232410376</v>
       </c>
@@ -1064,7 +1070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>232410389</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>232410391</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>232410395</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>232410396</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -1104,7 +1110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>232410379</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>232410360</v>
       </c>
@@ -1120,7 +1126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>232410364</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>232410365</v>
       </c>
@@ -1136,7 +1142,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>232410378</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>232410380</v>
       </c>
@@ -1152,7 +1158,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>232410381</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>232410382</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>232410384</v>
       </c>
@@ -1176,7 +1182,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>232410385</v>
       </c>
@@ -1184,7 +1190,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>232410387</v>
       </c>
@@ -1192,7 +1198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>232410392</v>
       </c>
@@ -1200,7 +1206,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>232410394</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>232410398</v>
       </c>
@@ -1216,7 +1222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>232410399</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>232410401</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>232410403</v>
       </c>
@@ -1240,7 +1246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>232410405</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>222310276</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>222310277</v>
       </c>
@@ -1264,7 +1270,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>222310278</v>
       </c>
@@ -1272,7 +1278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>222310281</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>222310287</v>
       </c>
@@ -1288,7 +1294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>222310289</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>222310290</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>222310296</v>
       </c>
@@ -1312,7 +1318,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>222310301</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>222310302</v>
       </c>
@@ -1328,7 +1334,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>222310305</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>222310308</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>222310312</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>222310314</v>
       </c>
@@ -1360,7 +1366,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>222310315</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>222310320</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>222310321</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>222310322</v>
       </c>
@@ -1392,7 +1398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>222310325</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>222310326</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>222310327</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>222310334</v>
       </c>
@@ -1424,7 +1430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>222310347</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>222310340</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>222310342</v>
       </c>
@@ -1448,7 +1454,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>222310275</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>222310273</v>
       </c>
@@ -1464,7 +1470,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>222310280</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>222310279</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>222310283</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>222310284</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>222310286</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>222310292</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>222310293</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>222310294</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>222310295</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>222310299</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>222310306</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>222310307</v>
       </c>
@@ -1560,7 +1566,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>222310310</v>
       </c>
@@ -1568,7 +1574,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>222310311</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>222310316</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>222310317</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>222310323</v>
       </c>
@@ -1600,7 +1606,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>222310324</v>
       </c>
@@ -1608,7 +1614,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>222310330</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>222310331</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>222310332</v>
       </c>
@@ -1632,7 +1638,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>222310333</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>222310335</v>
       </c>
@@ -1648,7 +1654,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>222310338</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>222310339</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>222310274</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>222310282</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>222310297</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>222310300</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>222310303</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>222310309</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>222310318</v>
       </c>
@@ -1720,7 +1726,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>222310319</v>
       </c>
@@ -1728,7 +1734,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>222310328</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>222310329</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>222310336</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>222310285</v>
       </c>
@@ -1760,1231 +1766,1231 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
     </row>
   </sheetData>
